--- a/web_scraper/processed_judgements/2021LHC6729.xlsx
+++ b/web_scraper/processed_judgements/2021LHC6729.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On December 1, 2010, a 7-8 year old girl named Javeria was reported missing by her father, Habib-ur-Rehman. * On the same day, her dead body was found in a graveyard with strangulation marks around her neck and blood on her private parts. * The appellant, Mohib Ali, was arrested on January 17, 2011, and charged with rape and murder of Javeria. * During investigation, Abdul Qadir and Bilal claimed to have seen Mohib Ali and his co-accused, Qasim Ali, with Javeria on the evening of November 30, 2010, and giving her a guava fruit. * The prosecution produced several witnesses, including Habib-ur-Rehman, Abdul Qadir, and Bilal, who testified about the events leading up to Javeria's death.   * The crime scenario involves the murder of Zafar Iqbal, who was found dead on November 30, 2010. * The prosecution's case relies heavily on the confession made by the appellant, Mohib Ali, which was recorded on January 31, 2011. * The confession was allegedly made voluntarily, but the prosecution failed to follow the proper procedure for recording a confession, as mandated by Section 164 Cr.P.C and the Rules and Orders of the Lahore High Court. * The appellant was arrested on January 17, 2011, but the prosecution failed to provide evidence of his arrest and custody.  </t>
+          <t xml:space="preserve"> * The appellant, Mohib Ali, was accused of committing rape and murder of a 7-year-old girl, Javeria, in 2010. * The complainant, Habib-ur-Rehman, reported the incident to the police, and a FIR was registered under Sections 302/34 PPC. * During the investigation, the appellant made a confession before a magistrate, and witnesses Abdul Qadir and Bilal claimed to have seen the appellant and his co-accused, Qasim Ali, with Javeria on the evening of November 30, 2010. * The prosecution produced several witnesses, including the complainant, Abdul Qadir, and a lady doctor who conducted the post-mortem examination of the deceased.   The appellant, Mohib Ali, was accused of murdering Zafar Iqbal, a deceased person. The prosecution's case relied heavily on the confession of the appellant, which was recorded by a Magistrate under Section 164 Cr.P.C. The investigation revealed that the appellant was arrested on an unspecified date, but the prosecution failed to produce any evidence to support this claim. The appellant was produced before the Magistrate multiple times, but the Magistrate failed to follow the proper procedure for recording a confession.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Habib-ur-Rehman, the complainant, testified that Javeria was missing and that he received a telephone call from Abdul Qadir and Bilal about her disappearance. * Abdul Qadir and Bilal testified that they saw Mohib Ali and Qasim Ali with Javeria on the evening of November 30, 2010, and giving her a guava fruit. * Other witnesses, including police officials and a lady doctor, testified about the investigation and autopsy of Javeria's body.   * Habib-ur-Rehman, the complainant, was unreliable as a witness due to his dishonest and deliberate improvements and omissions in his statement. * Abdul Qadir, another witness, was also unreliable as he failed to disclose important facts about the appellant's arrest and custody. * Muhammad Sharif SI, the investigating officer, was present inside the court when the confession was recorded, which was a violation of the procedure.  </t>
+          <t xml:space="preserve"> The prosecution relied on the testimony of Habib-ur-Rehman, the complainant, and Abdul Qadir, another witness. However, their testimonies were found to be unreliable due to deliberate improvements and omissions made by them to bring the case in line with the medical evidence.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The learned Additional Sessions Judge, Rajanpur, convicted Mohib Ali of rape and murder of Javeria and sentenced him to imprisonment for life under Sections 302(b), 364-A, and 376(i) PPC. * The judgment was passed after considering the evidence produced by the prosecution, including the testimony of the witnesses and the physical evidence collected from the crime scene. * The court rejected the defense argument that the prosecution's case was based on weak testimony and that the confession made by Mohib Ali was not reliable. * The court held that the prosecution had successfully proven its case beyond reasonable doubt and that the evidence produced was credible and reliable. * The judgment was upheld on appeal, and Mohib Ali was sentenced to imprisonment for life, with the benefit of Section 382-(B) Cr.P.C. extended to him.  * The judgment is in favor of the appellant, Mohib Ali, and he is acquitted from the case. * The court held that the evidence of confession was unreliable and flawed due to the failure of the prosecution to follow the proper procedure for recording a confession. * The court also noted that false confessions occur with some degree of regularity, and that the prevalence rate is unknown, but estimated to be around 4.78% in North America. * The court allowed the criminal appeal and set aside the impugned judgment dated November 28, 2013. * The appellant is to be released forthwith if not required in any other case. </t>
+          <t xml:space="preserve"> * The trial court convicted the appellant of the charges and sentenced him to life imprisonment under Sections 302(b) PPC, 364-A PPC, and 376(i) PPC, with a fine of Rs. 50,000. * The appellant appealed against the conviction and sentence, arguing that the prosecution's evidence was weak and unreliable. * The court considered the evidence produced by the prosecution and noted that several witnesses, including the complainant and Abdul Qadir, had made material improvements in their statements. * The court held that the improvements made by the witnesses were not credible and that the prosecution's case was not proved beyond reasonable doubt. * The court also noted that the appellant's confession was not reliable and that there was no evidence to link him to the crime. * The court ultimately acquitted the appellant of the charges and set aside the conviction and sentence.  **Basis of Decision:**  * The court's decision was based on the principle that a conviction must be based on evidence that is credible, reliable, and trustworthy. * The court noted that the prosecution's case was weakened by the improvements made by the witnesses and that the evidence produced by the prosecution was not sufficient to prove the appellant's guilt beyond reasonable doubt. * The court also noted that the appellant's confession was not reliable and that there was no evidence to link him to the crime.  **Section of Law Applied:**  * The court applied Section 302 PPC, Section 364-A PPC, and Section 376(i) PPC in its decision.  The judgment acquitted the appellant from the case due to the illegalities committed by the Magistrate while recording the confession. The Magistrate failed to follow the proper procedure, including not putting the questions formulated under the High Court Rules and Orders to the appellant, not asking if the appellant was under pressure or influence, and not taking an oath from the Stenographer who recorded the confession. The judgment also relied on research studies that showed the prevalence of false confessions, including in Pakistan. The appeal was allowed, and the impugned judgment was set aside, acquitting the appellant from the case. </t>
         </is>
       </c>
     </row>
